--- a/abuseipdb_xlsx.xlsx
+++ b/abuseipdb_xlsx.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,12 +445,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>178.238.230.93</t>
+          <t>221.181.185.220</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -458,14 +458,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-04-22T17:17:01+00:00</t>
+          <t>2021-04-23T05:17:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>119.45.191.168</t>
+          <t>218.92.0.165</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,19 +478,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-04-22T17:17:01+00:00</t>
+          <t>2021-04-23T05:17:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>101.32.187.113</t>
+          <t>140.249.51.212</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -498,19 +498,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-04-22T17:17:01+00:00</t>
+          <t>2021-04-23T05:17:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>62.99.90.10</t>
+          <t>138.68.255.120</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -518,19 +518,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-04-22T17:17:01+00:00</t>
+          <t>2021-04-23T05:17:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>54.38.212.160</t>
+          <t>1.169.137.143</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -538,19 +538,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-04-22T17:17:01+00:00</t>
+          <t>2021-04-23T05:17:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>51.81.91.140</t>
+          <t>218.92.0.184</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -558,19 +558,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-04-22T17:17:01+00:00</t>
+          <t>2021-04-23T05:17:00+00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>59.3.93.107</t>
+          <t>104.210.67.55</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -578,19 +578,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-04-22T17:17:00+00:00</t>
+          <t>2021-04-23T05:17:00+00:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>121.66.109.90</t>
+          <t>74.120.14.87</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -598,19 +598,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:59+00:00</t>
+          <t>2021-04-23T05:17:00+00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>221.181.185.19</t>
+          <t>64.227.111.127</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -618,19 +618,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:58+00:00</t>
+          <t>2021-04-23T05:17:00+00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>195.154.114.115</t>
+          <t>221.181.185.223</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -638,19 +638,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:58+00:00</t>
+          <t>2021-04-23T05:16:58+00:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>171.244.140.174</t>
+          <t>191.31.104.17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -658,19 +658,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:58+00:00</t>
+          <t>2021-04-23T05:16:58+00:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>148.70.209.112</t>
+          <t>202.137.10.182</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -678,19 +678,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:58+00:00</t>
+          <t>2021-04-23T05:16:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>139.186.156.87</t>
+          <t>193.178.118.4</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -698,14 +698,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:57+00:00</t>
+          <t>2021-04-23T05:16:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>113.128.246.50</t>
+          <t>182.254.211.79</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -718,14 +718,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:57+00:00</t>
+          <t>2021-04-23T05:16:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>106.13.223.163</t>
+          <t>81.68.234.113</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -738,14 +738,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:57+00:00</t>
+          <t>2021-04-23T05:16:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>209.126.230.71</t>
+          <t>167.99.110.102</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -758,19 +758,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:56+00:00</t>
+          <t>2021-04-23T05:16:56+00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>107.170.2.119</t>
+          <t>103.201.140.230</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -778,19 +778,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:56+00:00</t>
+          <t>2021-04-23T05:16:55+00:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>82.156.107.31</t>
+          <t>46.101.224.184</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -798,19 +798,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:56+00:00</t>
+          <t>2021-04-23T05:16:55+00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>41.226.25.4</t>
+          <t>212.145.192.205</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -818,19 +818,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:56+00:00</t>
+          <t>2021-04-23T05:16:54+00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>185.156.73.67</t>
+          <t>49.232.135.84</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -838,587 +838,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-04-22T17:16:55+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>165.232.122.135</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>100</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:52+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>119.45.168.33</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>100</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:51+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>106.12.88.121</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>100</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:51+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>191.234.176.158</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>100</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:50+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>88.214.26.37</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SC</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>100</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:50+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>222.153.75.69</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>NZ</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>100</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:49+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>221.181.185.223</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>100</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:49+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>218.92.0.145</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>100</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:49+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>208.109.12.104</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>100</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:49+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>46.26.87.191</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>100</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:49+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>159.65.181.26</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>100</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:48+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>140.249.201.102</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>100</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:48+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>49.234.235.127</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>100</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:48+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>165.232.174.103</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>SG</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>100</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:47+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>106.52.15.196</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>100</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:47+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>45.240.88.251</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>EG</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>100</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:47+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>200.116.110.25</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>100</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:46+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>182.23.51.2</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>100</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:46+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>181.124.153.53</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>PY</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>100</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:46+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>111.229.193.164</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>100</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:46+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>91.191.209.122</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>100</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:46+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>51.222.24.225</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>100</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:44+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>175.125.14.161</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>100</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:43+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>128.14.137.182</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>100</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:43+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>104.45.41.45</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>100</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:43+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>61.177.173.25</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>100</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:43+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>58.215.13.234</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>CN</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>100</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:43+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>161.35.208.207</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>100</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:41+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>106.51.73.204</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>100</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2021-04-22T17:16:40+00:00</t>
+          <t>2021-04-23T05:16:54+00:00</t>
         </is>
       </c>
     </row>

--- a/abuseipdb_xlsx.xlsx
+++ b/abuseipdb_xlsx.xlsx
@@ -445,7 +445,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>221.181.185.220</t>
+          <t>124.95.184.43</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -458,14 +458,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-04-23T05:17:01+00:00</t>
+          <t>2021-04-27T10:17:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>218.92.0.165</t>
+          <t>121.4.180.217</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -478,14 +478,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-04-23T05:17:01+00:00</t>
+          <t>2021-04-27T10:17:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>140.249.51.212</t>
+          <t>81.69.2.17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -498,19 +498,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-04-23T05:17:01+00:00</t>
+          <t>2021-04-27T10:17:01+00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>138.68.255.120</t>
+          <t>182.254.221.155</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -518,19 +518,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-04-23T05:17:01+00:00</t>
+          <t>2021-04-27T10:16:59+00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1.169.137.143</t>
+          <t>162.214.174.120</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -538,19 +538,19 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-04-23T05:17:01+00:00</t>
+          <t>2021-04-27T10:16:59+00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>218.92.0.184</t>
+          <t>145.239.221.81</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -558,19 +558,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-04-23T05:17:00+00:00</t>
+          <t>2021-04-27T10:16:59+00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>104.210.67.55</t>
+          <t>124.156.225.138</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -578,19 +578,19 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-04-23T05:17:00+00:00</t>
+          <t>2021-04-27T10:16:59+00:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>74.120.14.87</t>
+          <t>122.51.178.89</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -598,19 +598,19 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-04-23T05:17:00+00:00</t>
+          <t>2021-04-27T10:16:59+00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>64.227.111.127</t>
+          <t>78.139.216.117</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -618,19 +618,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-04-23T05:17:00+00:00</t>
+          <t>2021-04-27T10:16:59+00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>221.181.185.223</t>
+          <t>167.71.130.205</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -638,19 +638,19 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:58+00:00</t>
+          <t>2021-04-27T10:16:58+00:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>191.31.104.17</t>
+          <t>49.234.45.94</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -658,19 +658,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:58+00:00</t>
+          <t>2021-04-27T10:16:58+00:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>202.137.10.182</t>
+          <t>221.131.165.23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -678,19 +678,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:57+00:00</t>
+          <t>2021-04-27T10:16:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>193.178.118.4</t>
+          <t>218.92.0.175</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -698,19 +698,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:57+00:00</t>
+          <t>2021-04-27T10:16:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>182.254.211.79</t>
+          <t>206.189.128.215</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -718,19 +718,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:57+00:00</t>
+          <t>2021-04-27T10:16:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>81.68.234.113</t>
+          <t>185.191.34.207</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -738,14 +738,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:57+00:00</t>
+          <t>2021-04-27T10:16:57+00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>167.99.110.102</t>
+          <t>72.167.223.64</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -758,19 +758,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:56+00:00</t>
+          <t>2021-04-27T10:16:56+00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>103.201.140.230</t>
+          <t>221.181.185.223</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -778,19 +778,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:55+00:00</t>
+          <t>2021-04-27T10:16:55+00:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>46.101.224.184</t>
+          <t>221.181.185.151</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -798,19 +798,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:55+00:00</t>
+          <t>2021-04-27T10:16:55+00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>212.145.192.205</t>
+          <t>140.249.216.176</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -818,19 +818,19 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:54+00:00</t>
+          <t>2021-04-27T10:16:55+00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>49.232.135.84</t>
+          <t>103.145.13.120</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-04-23T05:16:54+00:00</t>
+          <t>2021-04-27T10:16:55+00:00</t>
         </is>
       </c>
     </row>
